--- a/TestData/JTPS-DEVQA/OCRLanguages.xlsx
+++ b/TestData/JTPS-DEVQA/OCRLanguages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
   <si>
     <t>EOF</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t>allrows,valueZXY</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>OCR Language</t>
   </si>
 </sst>
 </file>
@@ -982,8 +988,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,8 +1095,12 @@
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -1135,8 +1145,12 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>7</v>

--- a/TestData/JTPS-DEVQA/OCRLanguages.xlsx
+++ b/TestData/JTPS-DEVQA/OCRLanguages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="115">
   <si>
     <t>EOF</t>
   </si>
@@ -85,9 +85,6 @@
     <t>dbclick</t>
   </si>
   <si>
-    <t>Day Ranges,setproperty,innertext</t>
-  </si>
-  <si>
     <t>elm_Changessavedtothedatabase</t>
   </si>
   <si>
@@ -361,7 +358,7 @@
     <t>TS001</t>
   </si>
   <si>
-    <t>OCR Language</t>
+    <t>OCR Languages</t>
   </si>
 </sst>
 </file>
@@ -989,14 +986,14 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1019,94 +1016,94 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M1" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P1" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S1" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T1" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U1" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V1" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W1" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X1" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>7</v>
@@ -1115,16 +1112,16 @@
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1138,7 +1135,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1146,17 +1143,17 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -1179,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="3"/>
@@ -1200,7 +1197,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>7</v>
@@ -1209,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1239,10 +1236,10 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>7</v>
@@ -1265,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1285,7 +1282,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
@@ -1294,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1327,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>7</v>
@@ -1350,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1370,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>7</v>
@@ -1394,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1414,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
@@ -1423,12 +1420,12 @@
         <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -1460,7 +1457,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>7</v>
@@ -1483,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1503,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>7</v>
@@ -1524,7 +1521,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P11" s="33" t="s">
         <v>1</v>
@@ -1547,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>7</v>
@@ -1556,7 +1553,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
@@ -1589,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
@@ -1635,7 +1632,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -1644,12 +1641,12 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1658,7 +1655,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>9</v>
@@ -1681,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>7</v>
@@ -1690,12 +1687,12 @@
         <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1704,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P15" s="28" t="s">
         <v>14</v>
@@ -1727,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>7</v>
@@ -1736,12 +1733,12 @@
         <v>6</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>3</v>
@@ -1750,10 +1747,10 @@
         <v>2</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
@@ -1770,10 +1767,10 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>7</v>
@@ -1782,12 +1779,12 @@
         <v>6</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1796,10 +1793,10 @@
         <v>2</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P17" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
@@ -1809,7 +1806,7 @@
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
       <c r="X17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -1821,7 +1818,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>7</v>
@@ -1835,7 +1832,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1844,10 +1841,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
@@ -1867,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
@@ -1876,12 +1873,12 @@
         <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>3</v>
@@ -1890,10 +1887,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
@@ -1913,7 +1910,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>7</v>
@@ -1922,12 +1919,12 @@
         <v>6</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1936,10 +1933,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
@@ -1959,7 +1956,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
@@ -1968,12 +1965,12 @@
         <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -1982,10 +1979,10 @@
         <v>2</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
@@ -2005,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>7</v>
@@ -2019,7 +2016,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -2028,10 +2025,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
@@ -2051,7 +2048,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>7</v>
@@ -2060,7 +2057,7 @@
         <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -2093,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>7</v>
@@ -2107,7 +2104,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -2116,10 +2113,10 @@
         <v>2</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
@@ -2136,10 +2133,10 @@
       <c r="C25" s="8"/>
       <c r="D25" s="13"/>
       <c r="E25" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="27" t="s">
         <v>7</v>
@@ -2162,10 +2159,10 @@
         <v>2</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
@@ -2182,10 +2179,10 @@
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G26" s="27" t="s">
         <v>7</v>
@@ -2194,12 +2191,12 @@
         <v>6</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -2208,7 +2205,7 @@
         <v>2</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P26" s="24" t="s">
         <v>15</v>
@@ -2228,10 +2225,10 @@
       <c r="C27" s="8"/>
       <c r="D27" s="13"/>
       <c r="E27" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27" s="27" t="s">
         <v>7</v>
@@ -2259,7 +2256,7 @@
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
       <c r="X27" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2271,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>7</v>
@@ -2294,10 +2291,10 @@
         <v>2</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -2317,7 +2314,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>7</v>
@@ -2331,7 +2328,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
@@ -2340,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P29" s="11" t="s">
         <v>17</v>
@@ -2363,7 +2360,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>7</v>
@@ -2377,7 +2374,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>3</v>
@@ -2386,10 +2383,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P30" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -2409,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>7</v>
@@ -2423,7 +2420,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>3</v>
@@ -2432,10 +2429,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
@@ -2455,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>7</v>
@@ -2478,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>9</v>
@@ -2510,12 +2507,12 @@
         <v>6</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -2524,7 +2521,7 @@
         <v>2</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="10"/>
@@ -2554,12 +2551,12 @@
         <v>6</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>3</v>
@@ -2568,10 +2565,10 @@
         <v>2</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
@@ -2591,7 +2588,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>7</v>
@@ -2614,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>1</v>
@@ -2651,7 +2648,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>3</v>
@@ -2729,7 +2726,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>7</v>
@@ -2743,7 +2740,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>3</v>
@@ -2752,7 +2749,7 @@
         <v>2</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P38" s="11" t="s">
         <v>15</v>
@@ -2775,7 +2772,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>7</v>
@@ -2798,10 +2795,10 @@
         <v>2</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
@@ -2821,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>7</v>
@@ -2835,7 +2832,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>3</v>
@@ -2844,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>17</v>
@@ -2867,7 +2864,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>7</v>
@@ -2881,7 +2878,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -2890,10 +2887,10 @@
         <v>2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P41" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
@@ -2913,7 +2910,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>7</v>
@@ -2927,7 +2924,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
@@ -2936,10 +2933,10 @@
         <v>2</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P42" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
@@ -2982,7 +2979,7 @@
         <v>2</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>9</v>
@@ -3014,12 +3011,12 @@
         <v>6</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -3028,10 +3025,10 @@
         <v>2</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P44" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
@@ -3051,7 +3048,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>7</v>
@@ -3074,7 +3071,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P45" s="11" t="s">
         <v>1</v>
@@ -3111,7 +3108,7 @@
       <c r="J46" s="17"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -3189,7 +3186,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>7</v>
@@ -3212,10 +3209,10 @@
         <v>2</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P48" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
@@ -3235,7 +3232,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>7</v>
@@ -3249,7 +3246,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -3258,10 +3255,10 @@
         <v>2</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P49" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -3304,7 +3301,7 @@
         <v>2</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P50" s="11" t="s">
         <v>9</v>
@@ -3336,12 +3333,12 @@
         <v>6</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>3</v>
@@ -3350,10 +3347,10 @@
         <v>2</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P51" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
@@ -3382,12 +3379,12 @@
         <v>6</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -3396,10 +3393,10 @@
         <v>2</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P52" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
@@ -3419,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>7</v>
@@ -3442,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="O53" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P53" s="11" t="s">
         <v>1</v>
@@ -3479,7 +3476,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
@@ -3557,7 +3554,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>7</v>
@@ -3571,7 +3568,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>3</v>
@@ -3580,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P56" s="11" t="s">
         <v>17</v>
@@ -3603,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>7</v>
@@ -3626,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>1</v>
@@ -3658,12 +3655,12 @@
         <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3672,7 +3669,7 @@
         <v>2</v>
       </c>
       <c r="O58" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P58" s="10"/>
       <c r="Q58" s="3"/>
@@ -3707,7 +3704,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -3799,7 +3796,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>3</v>
@@ -3808,7 +3805,7 @@
         <v>2</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>17</v>
@@ -3854,7 +3851,7 @@
         <v>2</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P62" s="11" t="s">
         <v>9</v>
@@ -3886,12 +3883,12 @@
         <v>6</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>3</v>
@@ -3900,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="O63" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="10"/>
@@ -3944,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="O64" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P64" s="11" t="s">
         <v>1</v>
@@ -3981,7 +3978,7 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="18" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>3</v>
@@ -4082,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="O67" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P67" s="11" t="s">
         <v>17</v>
@@ -4119,7 +4116,7 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M68" s="3" t="s">
         <v>3</v>
@@ -4128,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P68" s="11" t="s">
         <v>15</v>
@@ -4174,7 +4171,7 @@
         <v>2</v>
       </c>
       <c r="O69" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P69" s="11" t="s">
         <v>14</v>
@@ -4265,7 +4262,7 @@
         <v>2</v>
       </c>
       <c r="O71" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>9</v>
@@ -4311,7 +4308,7 @@
         <v>2</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P72" s="11" t="s">
         <v>1</v>

--- a/TestData/JTPS-DEVQA/OCRLanguages.xlsx
+++ b/TestData/JTPS-DEVQA/OCRLanguages.xlsx
@@ -986,7 +986,7 @@
   <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>3</v>
@@ -1296,7 +1296,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>3</v>
